--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -15,14 +15,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <r>
+      <t>2014/8/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加班</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2014/8/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加班</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2014/9/6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加班</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机团购，满返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -46,8 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,13 +414,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -360,6 +460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -372,6 +473,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -66,7 +66,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机团购，满返</t>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加后看不了，服务器文件丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满返蚂蚁盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机团购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器文件丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午，戴丽娟</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金星</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改楼层内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆毅</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，简直是完美，不过代码还可以简化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台添加，前台调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,20 +518,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:A19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加后看不了，服务器文件丢失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>满返蚂蚁盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器文件丢失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +163,47 @@
   </si>
   <si>
     <t>后台添加，前台调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成一个空的订单，多生成的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击我的云蚂蚁出现隐私政策,那个默认同意的不要了，注册的也改成那样，如果同意就跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,13 +554,13 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,13 +577,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -561,48 +591,60 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -204,6 +204,14 @@
   </si>
   <si>
     <t>点击我的云蚂蚁出现隐私政策,那个默认同意的不要了，注册的也改成那样，如果同意就跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号不要截取，全显示，在下面加一个显示物流状态的功能,显示总订单，点进去是订单详情，订单详情下面要显示地址，参考手机淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yunmayi.net:8083/Default.aspx?BillNo=1000012447</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +240,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,16 +265,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,12 +580,12 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
   </cols>
@@ -568,31 +594,34 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="68.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.5">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -600,8 +629,8 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -609,16 +638,24 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
@@ -629,7 +666,7 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -640,7 +677,7 @@
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
@@ -648,24 +685,27 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -212,6 +212,14 @@
   </si>
   <si>
     <t>http://www.yunmayi.net:8083/Default.aspx?BillNo=1000012447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yunmayi.com/cart/cartconfirm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店前面加编号，按编号排序，弄一个默认地址，不需要每次都选门店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -601,111 +609,126 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68.25">
+    <row r="2" spans="1:3" ht="41.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="68.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="28.5">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.5">
+      <c r="A8" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -220,6 +220,133 @@
   </si>
   <si>
     <t>门店前面加编号，按编号排序，弄一个默认地址，不需要每次都选门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过查看是否有订单，如果有的话，查找地址，并赋给他，没有就默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用蚂蚁看测试用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未返</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试帐号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yunmayi002</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yunmayi002</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款成功后样式修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gotopay.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新帐号，选择前面的网站不能提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请退款流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复到以前了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yunmayi.com/help-32.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次付款加地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图不需要点击就加载网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是默认传递参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户退款-&gt;客服退款显示-&gt;-&gt;客服审核通过-&gt;财务退款显示-&gt;购物完成并删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,12 +383,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,16 +413,23 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,150 +725,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41.25">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="68.25">
-      <c r="A4" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="68.25">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="28.5">
-      <c r="A8" s="3" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.5">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+    <row r="17" spans="1:3" ht="27">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -347,6 +347,40 @@
   </si>
   <si>
     <t>客户退款-&gt;客服退款显示-&gt;-&gt;客服审核通过-&gt;财务退款显示-&gt;购物完成并删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张泽友要修改，暂时不动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机立即购买不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车后可以立即购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改好了，删除了添加的的功能就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.支付宝跳转出错
+2.“我的云蚂蚁”中点击“关联微博”，跳转的是首页
+3.商品加入购物车后，在购物车中点击商品，跳转不到商品详细页，安卓是空白，IOS是一直加载中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就剩支付宝，其他都修改完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是支付错误，只是如果没选择门店，少个判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机购物车增加修改数量总金额改变功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,22 +759,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="64.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -750,191 +784,222 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="41.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
+    <row r="7" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="68.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="40.5">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="67.5">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="28.5">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="27.75">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:3" ht="27">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -372,15 +372,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>就剩支付宝，其他都修改完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不是支付错误，只是如果没选择门店，少个判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机购物车增加修改数量总金额改变功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示改成黑色背景，过一会就消息，不需要点确认按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车加减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否是数字,如果输入数字会乱码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码提示，没有地址提示,购物车小数js有误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app中地址少于2不显示，只有一个地址不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车可填入从cookie里返回的值,没有地址提示OK,没有提示很多是app里不支持alert属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK，在上面执行了一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机增加地址貌似不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流点击不进去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yunmayi/app/orderDetail.php?orderId=2014101552535410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除配置即可，有人改动了文件，产生了致使错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情里放入订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机app不能增加地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是那个默认插入只能在电脑端生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -784,225 +856,304 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60.75" customHeight="1">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="103.5" customHeight="1">
+    <row r="3" spans="1:3" ht="58.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="14" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="16" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="40.5">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="67.5">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="27.75">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="40.5">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="67.5">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="27.75">
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27">
-      <c r="A20" s="4" t="s">
+    <row r="28" spans="1:3" ht="27">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -448,11 +448,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应该是那个默认插入只能在电脑端生效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是那个默认插入只能在电脑端生效,回到以前了，以前的是好的，不知道怎么测试出问题了，那个app的缓存太伤人了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款处加个选择退款帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉应该从哪里来到哪里去，但领导要求就按领导的改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -858,299 +866,308 @@
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="58.5" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="60.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="103.5" customHeight="1">
+    <row r="11" spans="1:3" ht="60.75" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.25" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40.5">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:3" ht="40.5">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="67.5">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="67.5">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="27.75">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="27.75">
+      <c r="A26" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="27">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:3" ht="27">
+      <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
-    <hyperlink ref="C19" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="C20" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -461,6 +461,30 @@
   </si>
   <si>
     <t>感觉应该从哪里来到哪里去，但领导要求就按领导的改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全额支付会出现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是上次那个是否选中的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次付款蚂蚁盾付款不消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">默认显示的是第一次支付宝付款的，真正付款成功后字段没有更新 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay/mayipay/pay.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -866,308 +890,335 @@
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="43.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="58.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="13" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="60.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="103.5" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A13" s="4" t="s">
+    <row r="16" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="17" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row r="18" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="34.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="40.5">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="37.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="67.5">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="40.5">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="27.75">
-      <c r="A26" s="5" t="s">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="67.5">
+      <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="27.75">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="27">
-      <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1"/>
-    <hyperlink ref="C20" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C25" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="云蚂蚁商城" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -235,39 +235,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>用蚂蚁看测试用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未返</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>测试帐号</t>
     </r>
     <r>
@@ -485,6 +452,64 @@
   </si>
   <si>
     <t>pay/mayipay/pay.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端的自提点显示内容不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递数据时加一个areaid，查询时用areaid匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机app反馈意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个输入框，下面点击发表提交，后台加一个显示表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK，显示表以前就有feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退换货修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机团购显示产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交表单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台产品与前台显示不符合,加入购物车动画效果 ,checked=1即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK,也错了一个字段，居然刚看到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交表单数目没有计算进去,金额显示不正确，购物车还有点小bug，增加会乘2,购物车刷新会加减数目会出现bug,别人修改的，少个(),优先级问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.选择网银，开户行必填  OK
+2.原因要求选择，客户不能填写 OK
+3.客服审核后还能查看所有订单 OK
+4.导出到excel功能 OK 特定的时间还有待修改
+5.日期为申请退款日期 OK
+6.审核页面客户可选择退款去向 OK
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -888,337 +913,383 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
+    <row r="2" spans="1:3" ht="35.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="43.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="58.5" customHeight="1">
+    <row r="7" spans="1:3" ht="20.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.75" customHeight="1">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="43.5" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="60.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="103.5" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="40.5">
-      <c r="A23" s="4" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="40.5">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="67.5">
-      <c r="A25" s="4" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" ht="67.5">
+      <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="27.75">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="27.75">
+      <c r="A34" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="27">
-      <c r="A32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="27">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-    <hyperlink ref="C23" r:id="rId2"/>
-    <hyperlink ref="C19" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId1"/>
+    <hyperlink ref="C28" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/工作备注.xlsx
+++ b/工作备注.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <r>
       <t>2014/8/10</t>
@@ -510,6 +510,112 @@
 5.日期为申请退款日期 OK
 6.审核页面客户可选择退款去向 OK
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014/11/17</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014/11/18</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2014/11/8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退寝室</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app蚂蚁盾详情模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示总的蚂蚁盾，并显示使用详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app支付可选择蚂蚁盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写完暂不提交checkOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交表单中没有相应的字段，通过提取cookie中的值来获取总价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款前付款后显示不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信注册链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信图片显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -913,383 +1019,442 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="35.25" customHeight="1">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="39.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="144.75" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1">
+    <row r="5" spans="1:3" ht="63.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1">
+    <row r="7" spans="1:3" ht="35.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="144.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="20.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="43.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="58.5" customHeight="1">
+    <row r="12" spans="1:3" ht="20.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33.75" customHeight="1">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="20.25" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="43.5" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="60.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="103.5" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="20.25" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A23" s="4" t="s">
+    <row r="28" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A25" s="4" t="s">
+    <row r="30" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40.5">
-      <c r="A28" s="4" t="s">
+    <row r="33" spans="1:3" ht="40.5">
+      <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="67.5">
-      <c r="A30" s="4" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" ht="67.5">
+      <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="27.75">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="27.75">
+      <c r="A39" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="27">
-      <c r="A37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="27">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5" t="s">
+      <c r="B50" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
+      <c r="B51" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
+      <c r="B52" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1"/>
-    <hyperlink ref="C28" r:id="rId2"/>
-    <hyperlink ref="C24" r:id="rId3"/>
-    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C35" r:id="rId1"/>
+    <hyperlink ref="C33" r:id="rId2"/>
+    <hyperlink ref="C29" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
